--- a/second_pass/welfare_results/3282_NC/integrated_calc_tseries.xlsx
+++ b/second_pass/welfare_results/3282_NC/integrated_calc_tseries.xlsx
@@ -43595,7 +43595,7 @@
         <v>1</v>
       </c>
       <c r="G1136" t="n">
-        <v>39.5216474152047</v>
+        <v>31.6632576706654</v>
       </c>
       <c r="H1136" t="n">
         <v>24560000000</v>
@@ -43604,13 +43604,13 @@
         <v>3010827523</v>
       </c>
       <c r="J1136" t="n">
-        <v>118992863792</v>
+        <v>95332607662.6801</v>
       </c>
       <c r="K1136" t="n">
         <v>3010827523</v>
       </c>
       <c r="L1136" t="n">
-        <v>118992863792</v>
+        <v>95332607662.6801</v>
       </c>
     </row>
     <row r="1137">
@@ -43633,7 +43633,7 @@
         <v>1</v>
       </c>
       <c r="G1137" t="n">
-        <v>39.5105736811384</v>
+        <v>31.6694150824891</v>
       </c>
       <c r="H1137" t="n">
         <v>24560000000</v>
@@ -43642,13 +43642,13 @@
         <v>3051697141</v>
       </c>
       <c r="J1137" t="n">
-        <v>120574304742</v>
+        <v>96645463464.3741</v>
       </c>
       <c r="K1137" t="n">
         <v>3051697141</v>
       </c>
       <c r="L1137" t="n">
-        <v>120574304742</v>
+        <v>96645463464.3741</v>
       </c>
     </row>
     <row r="1138">
@@ -43671,7 +43671,7 @@
         <v>1</v>
       </c>
       <c r="G1138" t="n">
-        <v>39.4676451383358</v>
+        <v>31.6502771580474</v>
       </c>
       <c r="H1138" t="n">
         <v>24560000000</v>
@@ -43680,13 +43680,13 @@
         <v>3105920620</v>
       </c>
       <c r="J1138" t="n">
-        <v>122583372858</v>
+        <v>98303248453.8944</v>
       </c>
       <c r="K1138" t="n">
         <v>3105920620</v>
       </c>
       <c r="L1138" t="n">
-        <v>122583372858</v>
+        <v>98303248453.8944</v>
       </c>
     </row>
     <row r="1139">
@@ -43709,7 +43709,7 @@
         <v>1</v>
       </c>
       <c r="G1139" t="n">
-        <v>39.3981819385328</v>
+        <v>31.6075250888421</v>
       </c>
       <c r="H1139" t="n">
         <v>24560000000</v>
@@ -43718,13 +43718,13 @@
         <v>3172220909</v>
       </c>
       <c r="J1139" t="n">
-        <v>124979736522</v>
+        <v>100266051968.567</v>
       </c>
       <c r="K1139" t="n">
         <v>3172220909</v>
       </c>
       <c r="L1139" t="n">
-        <v>124979736522</v>
+        <v>100266051968.567</v>
       </c>
     </row>
     <row r="1140">
@@ -43747,7 +43747,7 @@
         <v>1</v>
       </c>
       <c r="G1140" t="n">
-        <v>39.3304351603809</v>
+        <v>31.5659918145163</v>
       </c>
       <c r="H1140" t="n">
         <v>24560000000</v>
@@ -43756,13 +43756,13 @@
         <v>3239011665</v>
       </c>
       <c r="J1140" t="n">
-        <v>127391738274</v>
+        <v>102242615704.513</v>
       </c>
       <c r="K1140" t="n">
         <v>3239011665</v>
       </c>
       <c r="L1140" t="n">
-        <v>127391738274</v>
+        <v>102242615704.513</v>
       </c>
     </row>
     <row r="1141">
@@ -43785,7 +43785,7 @@
         <v>1</v>
       </c>
       <c r="G1141" t="n">
-        <v>39.2619933901231</v>
+        <v>31.5230333250943</v>
       </c>
       <c r="H1141" t="n">
         <v>24560000000</v>
@@ -43794,13 +43794,13 @@
         <v>3306347796</v>
       </c>
       <c r="J1141" t="n">
-        <v>129813805312</v>
+        <v>104226111757.66</v>
       </c>
       <c r="K1141" t="n">
         <v>3306347796</v>
       </c>
       <c r="L1141" t="n">
-        <v>129813805312</v>
+        <v>104226111757.66</v>
       </c>
     </row>
     <row r="1142">
@@ -43823,7 +43823,7 @@
         <v>1</v>
       </c>
       <c r="G1142" t="n">
-        <v>39.1853632470688</v>
+        <v>31.4724616417222</v>
       </c>
       <c r="H1142" t="n">
         <v>24560000000</v>
@@ -43832,13 +43832,13 @@
         <v>3376019383</v>
       </c>
       <c r="J1142" t="n">
-        <v>132290545852</v>
+        <v>106251640533.178</v>
       </c>
       <c r="K1142" t="n">
         <v>3376019383</v>
       </c>
       <c r="L1142" t="n">
-        <v>132290545852</v>
+        <v>106251640533.178</v>
       </c>
     </row>
     <row r="1143">
@@ -43861,7 +43861,7 @@
         <v>1</v>
       </c>
       <c r="G1143" t="n">
-        <v>39.1067158683441</v>
+        <v>31.4225986036322</v>
       </c>
       <c r="H1143" t="n">
         <v>24560000000</v>
@@ -43870,13 +43870,13 @@
         <v>3445805012</v>
       </c>
       <c r="J1143" t="n">
-        <v>134754117542</v>
+        <v>108276147758.46</v>
       </c>
       <c r="K1143" t="n">
         <v>3445805012</v>
       </c>
       <c r="L1143" t="n">
-        <v>134754117542</v>
+        <v>108276147758.46</v>
       </c>
     </row>
     <row r="1144">
@@ -43899,7 +43899,7 @@
         <v>1</v>
       </c>
       <c r="G1144" t="n">
-        <v>39.0254477819116</v>
+        <v>31.3710712096964</v>
       </c>
       <c r="H1144" t="n">
         <v>24560000000</v>
@@ -43908,13 +43908,13 @@
         <v>3517155024</v>
       </c>
       <c r="J1144" t="n">
-        <v>137258549730</v>
+        <v>110336920713.445</v>
       </c>
       <c r="K1144" t="n">
         <v>3517155024</v>
       </c>
       <c r="L1144" t="n">
-        <v>137258549730</v>
+        <v>110336920713.445</v>
       </c>
     </row>
     <row r="1145">
@@ -43937,7 +43937,7 @@
         <v>1</v>
       </c>
       <c r="G1145" t="n">
-        <v>38.946809987275</v>
+        <v>31.319594575683</v>
       </c>
       <c r="H1145" t="n">
         <v>24560000000</v>
@@ -43946,13 +43946,13 @@
         <v>3590757761</v>
       </c>
       <c r="J1145" t="n">
-        <v>139848560228</v>
+        <v>112461077294.007</v>
       </c>
       <c r="K1145" t="n">
         <v>3590757761</v>
       </c>
       <c r="L1145" t="n">
-        <v>139848560228</v>
+        <v>112461077294.007</v>
       </c>
     </row>
     <row r="1146">
@@ -43975,7 +43975,7 @@
         <v>1</v>
       </c>
       <c r="G1146" t="n">
-        <v>38.8685020409508</v>
+        <v>31.268625421567</v>
       </c>
       <c r="H1146" t="n">
         <v>24560000000</v>
@@ -43984,13 +43984,13 @@
         <v>3666017294</v>
       </c>
       <c r="J1146" t="n">
-        <v>142492600674</v>
+        <v>114631321555.073</v>
       </c>
       <c r="K1146" t="n">
         <v>3666017294</v>
       </c>
       <c r="L1146" t="n">
-        <v>142492600674</v>
+        <v>114631321555.073</v>
       </c>
     </row>
     <row r="1147">
@@ -44013,7 +44013,7 @@
         <v>1</v>
       </c>
       <c r="G1147" t="n">
-        <v>38.809517487665</v>
+        <v>31.2273383235435</v>
       </c>
       <c r="H1147" t="n">
         <v>24560000000</v>
@@ -44022,13 +44022,13 @@
         <v>3743699982</v>
       </c>
       <c r="J1147" t="n">
-        <v>145291189920</v>
+        <v>116905785919.758</v>
       </c>
       <c r="K1147" t="n">
         <v>3743699982</v>
       </c>
       <c r="L1147" t="n">
-        <v>145291189920</v>
+        <v>116905785919.758</v>
       </c>
     </row>
     <row r="1148">
@@ -44051,7 +44051,7 @@
         <v>1</v>
       </c>
       <c r="G1148" t="n">
-        <v>38.740561599161</v>
+        <v>31.1836179974556</v>
       </c>
       <c r="H1148" t="n">
         <v>24560000000</v>
@@ -44060,13 +44060,13 @@
         <v>3819225827</v>
       </c>
       <c r="J1148" t="n">
-        <v>147958953412</v>
+        <v>119097279235.184</v>
       </c>
       <c r="K1148" t="n">
         <v>3819225827</v>
       </c>
       <c r="L1148" t="n">
-        <v>147958953412</v>
+        <v>119097279235.184</v>
       </c>
     </row>
     <row r="1149">
@@ -44089,7 +44089,7 @@
         <v>1</v>
       </c>
       <c r="G1149" t="n">
-        <v>38.6698914078008</v>
+        <v>31.1394295596174</v>
       </c>
       <c r="H1149" t="n">
         <v>24560000000</v>
@@ -44098,13 +44098,13 @@
         <v>3895563337</v>
       </c>
       <c r="J1149" t="n">
-        <v>150641011214</v>
+        <v>121305620127.54</v>
       </c>
       <c r="K1149" t="n">
         <v>3895563337</v>
       </c>
       <c r="L1149" t="n">
-        <v>150641011214</v>
+        <v>121305620127.54</v>
       </c>
     </row>
     <row r="1150">
@@ -44127,7 +44127,7 @@
         <v>1</v>
       </c>
       <c r="G1150" t="n">
-        <v>38.5989221886834</v>
+        <v>31.097011584227</v>
       </c>
       <c r="H1150" t="n">
         <v>24560000000</v>
@@ -44136,13 +44136,13 @@
         <v>3971509423</v>
       </c>
       <c r="J1150" t="n">
-        <v>153295983190</v>
+        <v>123502074533.898</v>
       </c>
       <c r="K1150" t="n">
         <v>3971509423</v>
       </c>
       <c r="L1150" t="n">
-        <v>153295983190</v>
+        <v>123502074533.898</v>
       </c>
     </row>
     <row r="1151">
@@ -44165,7 +44165,7 @@
         <v>1</v>
       </c>
       <c r="G1151" t="n">
-        <v>38.5303918094209</v>
+        <v>31.0573896252329</v>
       </c>
       <c r="H1151" t="n">
         <v>24560000000</v>
@@ -44174,13 +44174,13 @@
         <v>4045995643</v>
       </c>
       <c r="J1151" t="n">
-        <v>155893797384</v>
+        <v>125658063106.646</v>
       </c>
       <c r="K1151" t="n">
         <v>4045995643</v>
       </c>
       <c r="L1151" t="n">
-        <v>155893797384</v>
+        <v>125658063106.646</v>
       </c>
     </row>
     <row r="1152">
@@ -44203,7 +44203,7 @@
         <v>1</v>
       </c>
       <c r="G1152" t="n">
-        <v>38.4615091956948</v>
+        <v>31.0196702052824</v>
       </c>
       <c r="H1152" t="n">
         <v>24560000000</v>
@@ -44212,13 +44212,13 @@
         <v>4119357126</v>
       </c>
       <c r="J1152" t="n">
-        <v>158436691982</v>
+        <v>127781099506.3</v>
       </c>
       <c r="K1152" t="n">
         <v>4119357126</v>
       </c>
       <c r="L1152" t="n">
-        <v>158436691982</v>
+        <v>127781099506.3</v>
       </c>
     </row>
     <row r="1153">
@@ -44241,7 +44241,7 @@
         <v>1</v>
       </c>
       <c r="G1153" t="n">
-        <v>38.3981715350963</v>
+        <v>30.9858033943383</v>
       </c>
       <c r="H1153" t="n">
         <v>24560000000</v>
@@ -44250,13 +44250,13 @@
         <v>4192227909</v>
       </c>
       <c r="J1153" t="n">
-        <v>160973886364</v>
+        <v>129899549772.532</v>
       </c>
       <c r="K1153" t="n">
         <v>4192227909</v>
       </c>
       <c r="L1153" t="n">
-        <v>160973886364</v>
+        <v>129899549772.532</v>
       </c>
     </row>
     <row r="1154">
@@ -44279,7 +44279,7 @@
         <v>1</v>
       </c>
       <c r="G1154" t="n">
-        <v>38.3371676758053</v>
+        <v>30.9531476327028</v>
       </c>
       <c r="H1154" t="n">
         <v>24560000000</v>
@@ -44288,13 +44288,13 @@
         <v>4266388771</v>
       </c>
       <c r="J1154" t="n">
-        <v>163561261684</v>
+        <v>132058161487.268</v>
       </c>
       <c r="K1154" t="n">
         <v>4266388771</v>
       </c>
       <c r="L1154" t="n">
-        <v>163561261684</v>
+        <v>132058161487.268</v>
       </c>
     </row>
     <row r="1155">
@@ -44317,7 +44317,7 @@
         <v>1</v>
       </c>
       <c r="G1155" t="n">
-        <v>38.2771813336578</v>
+        <v>30.9214337300188</v>
       </c>
       <c r="H1155" t="n">
         <v>24560000000</v>
@@ -44326,13 +44326,13 @@
         <v>4342683622</v>
       </c>
       <c r="J1155" t="n">
-        <v>166225688474</v>
+        <v>134282003828.111</v>
       </c>
       <c r="K1155" t="n">
         <v>4342683622</v>
       </c>
       <c r="L1155" t="n">
-        <v>166225688474</v>
+        <v>134282003828.111</v>
       </c>
     </row>
     <row r="1156">
@@ -44355,7 +44355,7 @@
         <v>1</v>
       </c>
       <c r="G1156" t="n">
-        <v>38.216524571687</v>
+        <v>30.8898404248625</v>
       </c>
       <c r="H1156" t="n">
         <v>24560000000</v>
@@ -44364,13 +44364,13 @@
         <v>4419898354</v>
       </c>
       <c r="J1156" t="n">
-        <v>168913154050</v>
+        <v>136529954849.172</v>
       </c>
       <c r="K1156" t="n">
         <v>4419898354</v>
       </c>
       <c r="L1156" t="n">
-        <v>168913154050</v>
+        <v>136529954849.172</v>
       </c>
     </row>
     <row r="1157">
@@ -44393,7 +44393,7 @@
         <v>1</v>
       </c>
       <c r="G1157" t="n">
-        <v>38.1554040097117</v>
+        <v>30.8585299295109</v>
       </c>
       <c r="H1157" t="n">
         <v>24560000000</v>
@@ -44402,13 +44402,13 @@
         <v>4498896208</v>
       </c>
       <c r="J1157" t="n">
-        <v>171657202414</v>
+        <v>138829323284.331</v>
       </c>
       <c r="K1157" t="n">
         <v>4498896208</v>
       </c>
       <c r="L1157" t="n">
-        <v>171657202414</v>
+        <v>138829323284.331</v>
       </c>
     </row>
     <row r="1158">
@@ -44431,7 +44431,7 @@
         <v>1</v>
       </c>
       <c r="G1158" t="n">
-        <v>38.0881235641232</v>
+        <v>30.8215900117004</v>
       </c>
       <c r="H1158" t="n">
         <v>24560000000</v>
@@ -44440,13 +44440,13 @@
         <v>4581184386</v>
       </c>
       <c r="J1158" t="n">
-        <v>174488716964</v>
+        <v>141199386913.296</v>
       </c>
       <c r="K1158" t="n">
         <v>4581184386</v>
       </c>
       <c r="L1158" t="n">
-        <v>174488716964</v>
+        <v>141199386913.296</v>
       </c>
     </row>
     <row r="1159">
@@ -44469,7 +44469,7 @@
         <v>1</v>
       </c>
       <c r="G1159" t="n">
-        <v>38.0184069006328</v>
+        <v>30.7828080668126</v>
       </c>
       <c r="H1159" t="n">
         <v>24560000000</v>
@@ -44478,13 +44478,13 @@
         <v>4664271390</v>
       </c>
       <c r="J1159" t="n">
-        <v>177328167600</v>
+        <v>143579370969.895</v>
       </c>
       <c r="K1159" t="n">
         <v>4664271390</v>
       </c>
       <c r="L1159" t="n">
-        <v>177328167600</v>
+        <v>143579370969.895</v>
       </c>
     </row>
     <row r="1160">
@@ -44507,7 +44507,7 @@
         <v>1</v>
       </c>
       <c r="G1160" t="n">
-        <v>37.9494473492166</v>
+        <v>30.7452782388762</v>
       </c>
       <c r="H1160" t="n">
         <v>24560000000</v>
@@ -44516,13 +44516,13 @@
         <v>4747110434</v>
       </c>
       <c r="J1160" t="n">
-        <v>180150217476</v>
+        <v>145951231124.002</v>
       </c>
       <c r="K1160" t="n">
         <v>4747110434</v>
       </c>
       <c r="L1160" t="n">
-        <v>180150217476</v>
+        <v>145951231124.002</v>
       </c>
     </row>
     <row r="1161">
@@ -44545,7 +44545,7 @@
         <v>1</v>
       </c>
       <c r="G1161" t="n">
-        <v>37.8822341656348</v>
+        <v>30.7083467771916</v>
       </c>
       <c r="H1161" t="n">
         <v>24560000000</v>
@@ -44554,13 +44554,13 @@
         <v>4831549278</v>
       </c>
       <c r="J1161" t="n">
-        <v>183029881132</v>
+        <v>148368890699.914</v>
       </c>
       <c r="K1161" t="n">
         <v>4831549278</v>
       </c>
       <c r="L1161" t="n">
-        <v>183029881132</v>
+        <v>148368890699.914</v>
       </c>
     </row>
     <row r="1162">
@@ -44583,7 +44583,7 @@
         <v>1</v>
       </c>
       <c r="G1162" t="n">
-        <v>37.8175410039456</v>
+        <v>30.6719603930315</v>
       </c>
       <c r="H1162" t="n">
         <v>24560000000</v>
@@ -44592,13 +44592,13 @@
         <v>4918300108</v>
       </c>
       <c r="J1162" t="n">
-        <v>185998016004</v>
+        <v>150853906113.619</v>
       </c>
       <c r="K1162" t="n">
         <v>4918300108</v>
       </c>
       <c r="L1162" t="n">
-        <v>185998016004</v>
+        <v>150853906113.619</v>
       </c>
     </row>
     <row r="1163">
@@ -44621,7 +44621,7 @@
         <v>1</v>
       </c>
       <c r="G1163" t="n">
-        <v>37.7542550161157</v>
+        <v>30.6355935131722</v>
       </c>
       <c r="H1163" t="n">
         <v>24560000000</v>
@@ -44630,13 +44630,13 @@
         <v>5007413232</v>
       </c>
       <c r="J1163" t="n">
-        <v>189051156132</v>
+        <v>153405076328.032</v>
       </c>
       <c r="K1163" t="n">
         <v>5007413232</v>
       </c>
       <c r="L1163" t="n">
-        <v>189051156132</v>
+        <v>153405076328.032</v>
       </c>
     </row>
     <row r="1164">
@@ -44659,7 +44659,7 @@
         <v>1</v>
       </c>
       <c r="G1164" t="n">
-        <v>37.6948080925881</v>
+        <v>30.6003067259791</v>
       </c>
       <c r="H1164" t="n">
         <v>24560000000</v>
@@ -44668,13 +44668,13 @@
         <v>5097327302</v>
       </c>
       <c r="J1164" t="n">
-        <v>192142774434</v>
+        <v>155979778923.907</v>
       </c>
       <c r="K1164" t="n">
         <v>5097327302</v>
       </c>
       <c r="L1164" t="n">
-        <v>192142774434</v>
+        <v>155979778923.907</v>
       </c>
     </row>
     <row r="1165">
@@ -44697,7 +44697,7 @@
         <v>1</v>
       </c>
       <c r="G1165" t="n">
-        <v>37.6428212129706</v>
+        <v>30.5679017169497</v>
       </c>
       <c r="H1165" t="n">
         <v>24560000000</v>
@@ -44706,13 +44706,13 @@
         <v>5187599374</v>
       </c>
       <c r="J1165" t="n">
-        <v>195275875760</v>
+        <v>158574027811.342</v>
       </c>
       <c r="K1165" t="n">
         <v>5187599374</v>
       </c>
       <c r="L1165" t="n">
-        <v>195275875760</v>
+        <v>158574027811.342</v>
       </c>
     </row>
     <row r="1166">
@@ -44735,7 +44735,7 @@
         <v>1</v>
       </c>
       <c r="G1166" t="n">
-        <v>37.5904836503274</v>
+        <v>30.5335564805515</v>
       </c>
       <c r="H1166" t="n">
         <v>24560000000</v>
@@ -44744,13 +44744,13 @@
         <v>5278967811</v>
       </c>
       <c r="J1166" t="n">
-        <v>198438953190</v>
+        <v>161185661816.182</v>
       </c>
       <c r="K1166" t="n">
         <v>5278967811</v>
       </c>
       <c r="L1166" t="n">
-        <v>198438953190</v>
+        <v>161185661816.182</v>
       </c>
     </row>
     <row r="1167">
@@ -44773,7 +44773,7 @@
         <v>1</v>
       </c>
       <c r="G1167" t="n">
-        <v>37.6925350326392</v>
+        <v>30.74346923312</v>
       </c>
       <c r="H1167" t="n">
         <v>24560000000</v>
@@ -44782,13 +44782,13 @@
         <v>5367992660</v>
       </c>
       <c r="J1167" t="n">
-        <v>202333251392</v>
+        <v>165030717186.324</v>
       </c>
       <c r="K1167" t="n">
         <v>5367992660</v>
       </c>
       <c r="L1167" t="n">
-        <v>202333251392</v>
+        <v>165030717186.324</v>
       </c>
     </row>
     <row r="1168">
@@ -44811,7 +44811,7 @@
         <v>1</v>
       </c>
       <c r="G1168" t="n">
-        <v>38.198605171537</v>
+        <v>30.9299691047612</v>
       </c>
       <c r="H1168" t="n">
         <v>24560000000</v>
@@ -44820,13 +44820,13 @@
         <v>5456438624.5</v>
       </c>
       <c r="J1168" t="n">
-        <v>208428344660</v>
+        <v>168767478077.811</v>
       </c>
       <c r="K1168" t="n">
         <v>5456438624.5</v>
       </c>
       <c r="L1168" t="n">
-        <v>208428344660</v>
+        <v>168767478077.811</v>
       </c>
     </row>
     <row r="1169">
@@ -44849,7 +44849,7 @@
         <v>1</v>
       </c>
       <c r="G1169" t="n">
-        <v>38.8360425088829</v>
+        <v>31.1093163821589</v>
       </c>
       <c r="H1169" t="n">
         <v>24560000000</v>
@@ -44858,13 +44858,13 @@
         <v>5543904800</v>
       </c>
       <c r="J1169" t="n">
-        <v>215303322478</v>
+        <v>172467088415.769</v>
       </c>
       <c r="K1169" t="n">
         <v>5543904800</v>
       </c>
       <c r="L1169" t="n">
-        <v>215303322478</v>
+        <v>172467088415.769</v>
       </c>
     </row>
     <row r="1170">
@@ -44887,7 +44887,7 @@
         <v>1</v>
       </c>
       <c r="G1170" t="n">
-        <v>38.8770198731753</v>
+        <v>31.3714031696802</v>
       </c>
       <c r="H1170" t="n">
         <v>24560000000</v>
@@ -44896,13 +44896,13 @@
         <v>5629775894.5</v>
       </c>
       <c r="J1170" t="n">
-        <v>218868909332</v>
+        <v>176613969341.306</v>
       </c>
       <c r="K1170" t="n">
         <v>5629775894.5</v>
       </c>
       <c r="L1170" t="n">
-        <v>218868909332</v>
+        <v>176613969341.306</v>
       </c>
     </row>
     <row r="1171">
@@ -44925,7 +44925,7 @@
         <v>1</v>
       </c>
       <c r="G1171" t="n">
-        <v>38.8568594965848</v>
+        <v>31.660837739045</v>
       </c>
       <c r="H1171" t="n">
         <v>24560000000</v>
@@ -44934,13 +44934,13 @@
         <v>5715247477</v>
       </c>
       <c r="J1171" t="n">
-        <v>222076568202</v>
+        <v>180949523007.784</v>
       </c>
       <c r="K1171" t="n">
         <v>5715247477</v>
       </c>
       <c r="L1171" t="n">
-        <v>222076568202</v>
+        <v>180949523007.784</v>
       </c>
     </row>
     <row r="1172">
@@ -44963,7 +44963,7 @@
         <v>1</v>
       </c>
       <c r="G1172" t="n">
-        <v>38.840129545812</v>
+        <v>31.9897957805238</v>
       </c>
       <c r="H1172" t="n">
         <v>24560000000</v>
@@ -44972,13 +44972,13 @@
         <v>5801190546.5</v>
       </c>
       <c r="J1172" t="n">
-        <v>225318992346</v>
+        <v>185578900866.44</v>
       </c>
       <c r="K1172" t="n">
         <v>5801190546.5</v>
       </c>
       <c r="L1172" t="n">
-        <v>225318992346</v>
+        <v>185578900866.44</v>
       </c>
     </row>
     <row r="1173">
@@ -45001,7 +45001,7 @@
         <v>1</v>
       </c>
       <c r="G1173" t="n">
-        <v>38.8234945094848</v>
+        <v>32.3249687142405</v>
       </c>
       <c r="H1173" t="n">
         <v>24560000000</v>
@@ -45010,13 +45010,13 @@
         <v>5886866405.5</v>
       </c>
       <c r="J1173" t="n">
-        <v>228548725572</v>
+        <v>190292772382.701</v>
       </c>
       <c r="K1173" t="n">
         <v>5886866405.5</v>
       </c>
       <c r="L1173" t="n">
-        <v>228548725572</v>
+        <v>190292772382.701</v>
       </c>
     </row>
     <row r="1174">
@@ -45039,7 +45039,7 @@
         <v>1</v>
       </c>
       <c r="G1174" t="n">
-        <v>39.1195236260536</v>
+        <v>32.4787091022382</v>
       </c>
       <c r="H1174" t="n">
         <v>24560000000</v>
@@ -45048,13 +45048,13 @@
         <v>5972206291.5</v>
       </c>
       <c r="J1174" t="n">
-        <v>233629865120</v>
+        <v>193969550840.186</v>
       </c>
       <c r="K1174" t="n">
         <v>5972206291.5</v>
       </c>
       <c r="L1174" t="n">
-        <v>233629865120</v>
+        <v>193969550840.186</v>
       </c>
     </row>
     <row r="1175">
@@ -45077,7 +45077,7 @@
         <v>1</v>
       </c>
       <c r="G1175" t="n">
-        <v>39.0704899541842</v>
+        <v>32.7735587694217</v>
       </c>
       <c r="H1175" t="n">
         <v>24560000000</v>
@@ -45086,13 +45086,13 @@
         <v>6056396446</v>
       </c>
       <c r="J1175" t="n">
-        <v>236626376502</v>
+        <v>198489664853.898</v>
       </c>
       <c r="K1175" t="n">
         <v>6056396446</v>
       </c>
       <c r="L1175" t="n">
-        <v>236626376502</v>
+        <v>198489664853.898</v>
       </c>
     </row>
     <row r="1176">
@@ -45115,7 +45115,7 @@
         <v>1</v>
       </c>
       <c r="G1176" t="n">
-        <v>39.5825070804277</v>
+        <v>33.2936934690387</v>
       </c>
       <c r="H1176" t="n">
         <v>24560000000</v>
@@ -45124,13 +45124,13 @@
         <v>6139712296.5</v>
       </c>
       <c r="J1176" t="n">
-        <v>243025205448</v>
+        <v>204413699187.759</v>
       </c>
       <c r="K1176" t="n">
         <v>6139712296.5</v>
       </c>
       <c r="L1176" t="n">
-        <v>243025205448</v>
+        <v>204413699187.759</v>
       </c>
     </row>
     <row r="1177">
@@ -45153,7 +45153,7 @@
         <v>1</v>
       </c>
       <c r="G1177" t="n">
-        <v>39.5588545407763</v>
+        <v>33.6173338059189</v>
       </c>
       <c r="H1177" t="n">
         <v>24560000000</v>
@@ -45162,13 +45162,13 @@
         <v>6222770459.5</v>
       </c>
       <c r="J1177" t="n">
-        <v>246165671448</v>
+        <v>209192951734.623</v>
       </c>
       <c r="K1177" t="n">
         <v>6222770459.5</v>
       </c>
       <c r="L1177" t="n">
-        <v>246165671448</v>
+        <v>209192951734.623</v>
       </c>
     </row>
     <row r="1178">
@@ -45191,7 +45191,7 @@
         <v>1</v>
       </c>
       <c r="G1178" t="n">
-        <v>39.5994100732702</v>
+        <v>33.9450824462594</v>
       </c>
       <c r="H1178" t="n">
         <v>24560000000</v>
@@ -45200,13 +45200,13 @@
         <v>6305069108</v>
       </c>
       <c r="J1178" t="n">
-        <v>249677017148</v>
+        <v>214026090700.423</v>
       </c>
       <c r="K1178" t="n">
         <v>6305069108</v>
       </c>
       <c r="L1178" t="n">
-        <v>249677017148</v>
+        <v>214026090700.423</v>
       </c>
     </row>
     <row r="1179">
@@ -45229,7 +45229,7 @@
         <v>1</v>
       </c>
       <c r="G1179" t="n">
-        <v>39.5683155563944</v>
+        <v>34.3662378511553</v>
       </c>
       <c r="H1179" t="n">
         <v>24560000000</v>
@@ -45238,13 +45238,13 @@
         <v>6387110221</v>
       </c>
       <c r="J1179" t="n">
-        <v>252727192718</v>
+        <v>219500949036.431</v>
       </c>
       <c r="K1179" t="n">
         <v>6387110221</v>
       </c>
       <c r="L1179" t="n">
-        <v>252727192718</v>
+        <v>219500949036.431</v>
       </c>
     </row>
     <row r="1180">
@@ -45267,7 +45267,7 @@
         <v>1</v>
       </c>
       <c r="G1180" t="n">
-        <v>39.5354306480795</v>
+        <v>35.0551191478891</v>
       </c>
       <c r="H1180" t="n">
         <v>24560000000</v>
@@ -45276,13 +45276,13 @@
         <v>6469986725.5</v>
       </c>
       <c r="J1180" t="n">
-        <v>255793711480</v>
+        <v>226806155547.663</v>
       </c>
       <c r="K1180" t="n">
         <v>6469986725.5</v>
       </c>
       <c r="L1180" t="n">
-        <v>255793711480</v>
+        <v>226806155547.663</v>
       </c>
     </row>
     <row r="1181">
@@ -45305,7 +45305,7 @@
         <v>1</v>
       </c>
       <c r="G1181" t="n">
-        <v>39.4971568075333</v>
+        <v>35.75334786747</v>
       </c>
       <c r="H1181" t="n">
         <v>24560000000</v>
@@ -45314,13 +45314,13 @@
         <v>6552921748.5</v>
       </c>
       <c r="J1181" t="n">
-        <v>258821777848</v>
+        <v>234288890822.43</v>
       </c>
       <c r="K1181" t="n">
         <v>6552921748.5</v>
       </c>
       <c r="L1181" t="n">
-        <v>258821777848</v>
+        <v>234288890822.43</v>
       </c>
     </row>
     <row r="1182">
@@ -45343,7 +45343,7 @@
         <v>1</v>
       </c>
       <c r="G1182" t="n">
-        <v>39.5922725665107</v>
+        <v>36.7034647300593</v>
       </c>
       <c r="H1182" t="n">
         <v>24560000000</v>
@@ -45352,13 +45352,13 @@
         <v>6636906506</v>
       </c>
       <c r="J1182" t="n">
-        <v>262770211384</v>
+        <v>243597463859.672</v>
       </c>
       <c r="K1182" t="n">
         <v>6636906506</v>
       </c>
       <c r="L1182" t="n">
-        <v>262770211384</v>
+        <v>243597463859.672</v>
       </c>
     </row>
     <row r="1183">
@@ -45381,7 +45381,7 @@
         <v>1</v>
       </c>
       <c r="G1183" t="n">
-        <v>39.8215886075551</v>
+        <v>37.5742377648322</v>
       </c>
       <c r="H1183" t="n">
         <v>24560000000</v>
@@ -45390,13 +45390,13 @@
         <v>6721269564.5</v>
       </c>
       <c r="J1183" t="n">
-        <v>267651631518</v>
+        <v>252546580698.053</v>
       </c>
       <c r="K1183" t="n">
         <v>6721269564.5</v>
       </c>
       <c r="L1183" t="n">
-        <v>267651631518</v>
+        <v>252546580698.053</v>
       </c>
     </row>
     <row r="1184">
@@ -45419,7 +45419,7 @@
         <v>1</v>
       </c>
       <c r="G1184" t="n">
-        <v>41.13926010617</v>
+        <v>38.1934133810906</v>
       </c>
       <c r="H1184" t="n">
         <v>24560000000</v>
@@ -45428,13 +45428,13 @@
         <v>6807134829</v>
       </c>
       <c r="J1184" t="n">
-        <v>280040490308</v>
+        <v>259987714464.816</v>
       </c>
       <c r="K1184" t="n">
         <v>6807134829</v>
       </c>
       <c r="L1184" t="n">
-        <v>280040490308</v>
+        <v>259987714464.816</v>
       </c>
     </row>
     <row r="1185">
@@ -45457,7 +45457,7 @@
         <v>1</v>
       </c>
       <c r="G1185" t="n">
-        <v>41.0485248066071</v>
+        <v>38.1377778683649</v>
       </c>
       <c r="H1185" t="n">
         <v>24560000000</v>
@@ -45466,13 +45466,13 @@
         <v>6893059682</v>
       </c>
       <c r="J1185" t="n">
-        <v>282949931350</v>
+        <v>262885978985.498</v>
       </c>
       <c r="K1185" t="n">
         <v>6893059682</v>
       </c>
       <c r="L1185" t="n">
-        <v>282949931350</v>
+        <v>262885978985.498</v>
       </c>
     </row>
     <row r="1186">
@@ -45495,7 +45495,7 @@
         <v>1</v>
       </c>
       <c r="G1186" t="n">
-        <v>41.1270472178065</v>
+        <v>38.8760885793092</v>
       </c>
       <c r="H1186" t="n">
         <v>24560000000</v>
@@ -45504,13 +45504,13 @@
         <v>6977532852</v>
       </c>
       <c r="J1186" t="n">
-        <v>286965323068</v>
+        <v>271259185219.392</v>
       </c>
       <c r="K1186" t="n">
         <v>6977532852</v>
       </c>
       <c r="L1186" t="n">
-        <v>286965323068</v>
+        <v>271259185219.392</v>
       </c>
     </row>
     <row r="1187">
@@ -45533,7 +45533,7 @@
         <v>1</v>
       </c>
       <c r="G1187" t="n">
-        <v>42.693271333004</v>
+        <v>39.6661974933437</v>
       </c>
       <c r="H1187" t="n">
         <v>24560000000</v>
@@ -45542,13 +45542,13 @@
         <v>7063021186.5</v>
       </c>
       <c r="J1187" t="n">
-        <v>301543479946</v>
+        <v>280163193283.38</v>
       </c>
       <c r="K1187" t="n">
         <v>7063021186.5</v>
       </c>
       <c r="L1187" t="n">
-        <v>301543479946</v>
+        <v>280163193283.38</v>
       </c>
     </row>
     <row r="1188">
@@ -45571,7 +45571,7 @@
         <v>1</v>
       </c>
       <c r="G1188" t="n">
-        <v>42.1458745042585</v>
+        <v>40.2844393185383</v>
       </c>
       <c r="H1188" t="n">
         <v>24560000000</v>
@@ -45580,13 +45580,13 @@
         <v>7152554638</v>
       </c>
       <c r="J1188" t="n">
-        <v>301450670158</v>
+        <v>288136653287.041</v>
       </c>
       <c r="K1188" t="n">
         <v>7152554638</v>
       </c>
       <c r="L1188" t="n">
-        <v>301450670158</v>
+        <v>288136653287.041</v>
       </c>
     </row>
     <row r="1189">
@@ -45609,7 +45609,7 @@
         <v>1</v>
       </c>
       <c r="G1189" t="n">
-        <v>42.1573676305404</v>
+        <v>40.8805056980668</v>
       </c>
       <c r="H1189" t="n">
         <v>24560000000</v>
@@ -45618,13 +45618,13 @@
         <v>7241970754</v>
       </c>
       <c r="J1189" t="n">
-        <v>305302423446</v>
+        <v>296055426674.13</v>
       </c>
       <c r="K1189" t="n">
         <v>7241970754</v>
       </c>
       <c r="L1189" t="n">
-        <v>305302423446</v>
+        <v>296055426674.13</v>
       </c>
     </row>
     <row r="1190">
@@ -45647,7 +45647,7 @@
         <v>1</v>
       </c>
       <c r="G1190" t="n">
-        <v>42.8848290549105</v>
+        <v>41.314098387732</v>
       </c>
       <c r="H1190" t="n">
         <v>24560000000</v>
@@ -45656,13 +45656,13 @@
         <v>7330518889.5</v>
       </c>
       <c r="J1190" t="n">
-        <v>314368049460</v>
+        <v>302853778633.931</v>
       </c>
       <c r="K1190" t="n">
         <v>7330518889.5</v>
       </c>
       <c r="L1190" t="n">
-        <v>314368049460</v>
+        <v>302853778633.931</v>
       </c>
     </row>
     <row r="1191">
@@ -45685,7 +45685,7 @@
         <v>1</v>
       </c>
       <c r="G1191" t="n">
-        <v>42.8214410140727</v>
+        <v>41.4978771678614</v>
       </c>
       <c r="H1191" t="n">
         <v>24560000000</v>
@@ -45694,13 +45694,13 @@
         <v>7418010158.5</v>
       </c>
       <c r="J1191" t="n">
-        <v>317649884444</v>
+        <v>307831674387.381</v>
       </c>
       <c r="K1191" t="n">
         <v>7418010158.5</v>
       </c>
       <c r="L1191" t="n">
-        <v>317649884444</v>
+        <v>307831674387.381</v>
       </c>
     </row>
     <row r="1192">
@@ -45723,7 +45723,7 @@
         <v>1</v>
       </c>
       <c r="G1192" t="n">
-        <v>42.8398085566697</v>
+        <v>42.0181600388215</v>
       </c>
       <c r="H1192" t="n">
         <v>24560000000</v>
@@ -45732,13 +45732,13 @@
         <v>7505014971.5</v>
       </c>
       <c r="J1192" t="n">
-        <v>321513404594</v>
+        <v>315346920166.238</v>
       </c>
       <c r="K1192" t="n">
         <v>7505014971.5</v>
       </c>
       <c r="L1192" t="n">
-        <v>321513404594</v>
+        <v>315346920166.238</v>
       </c>
     </row>
     <row r="1193">
@@ -45761,7 +45761,7 @@
         <v>1</v>
       </c>
       <c r="G1193" t="n">
-        <v>42.8544129288158</v>
+        <v>42.8077048458484</v>
       </c>
       <c r="H1193" t="n">
         <v>24560000000</v>
@@ -45770,13 +45770,13 @@
         <v>7590561081.5</v>
       </c>
       <c r="J1193" t="n">
-        <v>325289038948</v>
+        <v>324934498391.236</v>
       </c>
       <c r="K1193" t="n">
         <v>7590561081.5</v>
       </c>
       <c r="L1193" t="n">
-        <v>325289038948</v>
+        <v>324934498391.236</v>
       </c>
     </row>
     <row r="1194">
@@ -45799,7 +45799,7 @@
         <v>1</v>
       </c>
       <c r="G1194" t="n">
-        <v>43.3571426787558</v>
+        <v>43.7943807760403</v>
       </c>
       <c r="H1194" t="n">
         <v>24560000000</v>
@@ -45808,13 +45808,13 @@
         <v>7672920573.5</v>
       </c>
       <c r="J1194" t="n">
-        <v>332675912068</v>
+        <v>336030805260.172</v>
       </c>
       <c r="K1194" t="n">
         <v>7672920573.5</v>
       </c>
       <c r="L1194" t="n">
-        <v>332675912068</v>
+        <v>336030805260.172</v>
       </c>
     </row>
     <row r="1195">
@@ -45837,7 +45837,7 @@
         <v>1</v>
       </c>
       <c r="G1195" t="n">
-        <v>43.3089178164169</v>
+        <v>44.7322394229615</v>
       </c>
       <c r="H1195" t="n">
         <v>24560000000</v>
@@ -45846,13 +45846,13 @@
         <v>7753300984</v>
       </c>
       <c r="J1195" t="n">
-        <v>335787075122</v>
+        <v>346822515934.571</v>
       </c>
       <c r="K1195" t="n">
         <v>7753300984</v>
       </c>
       <c r="L1195" t="n">
-        <v>335787075122</v>
+        <v>346822515934.571</v>
       </c>
     </row>
     <row r="1196">
@@ -45875,7 +45875,7 @@
         <v>1</v>
       </c>
       <c r="G1196" t="n">
-        <v>43.2051139419221</v>
+        <v>44.4423421644995</v>
       </c>
       <c r="H1196" t="n">
         <v>24560000000</v>
@@ -45884,13 +45884,13 @@
         <v>7832554966.5</v>
       </c>
       <c r="J1196" t="n">
-        <v>338406429784</v>
+        <v>348097087843.443</v>
       </c>
       <c r="K1196" t="n">
         <v>7832554966.5</v>
       </c>
       <c r="L1196" t="n">
-        <v>338406429784</v>
+        <v>348097087843.443</v>
       </c>
     </row>
     <row r="1197">
@@ -45913,7 +45913,7 @@
         <v>1</v>
       </c>
       <c r="G1197" t="n">
-        <v>52.1713125745295</v>
+        <v>46.6133682945116</v>
       </c>
       <c r="H1197" t="n">
         <v>24560000000</v>
@@ -45922,13 +45922,13 @@
         <v>7897696837</v>
       </c>
       <c r="J1197" t="n">
-        <v>412033210302</v>
+        <v>368138251341.481</v>
       </c>
       <c r="K1197" t="n">
         <v>7897696837</v>
       </c>
       <c r="L1197" t="n">
-        <v>412033210302</v>
+        <v>368138251341.481</v>
       </c>
     </row>
     <row r="1198">
@@ -45951,7 +45951,7 @@
         <v>1</v>
       </c>
       <c r="G1198" t="n">
-        <v>53.8140407167386</v>
+        <v>48.9005345942054</v>
       </c>
       <c r="H1198" t="n">
         <v>24560000000</v>
@@ -45960,13 +45960,13 @@
         <v>7966795241.5</v>
       </c>
       <c r="J1198" t="n">
-        <v>428725443508</v>
+        <v>389580546311.921</v>
       </c>
       <c r="K1198" t="n">
         <v>7966795241.5</v>
       </c>
       <c r="L1198" t="n">
-        <v>428725443508</v>
+        <v>389580546311.921</v>
       </c>
     </row>
     <row r="1199">
@@ -45989,7 +45989,7 @@
         <v>1</v>
       </c>
       <c r="G1199" t="n">
-        <v>54.393350519733</v>
+        <v>50.2800827867373</v>
       </c>
       <c r="H1199" t="n">
         <v>24560000000</v>
@@ -45998,13 +45998,13 @@
         <v>8038502718</v>
       </c>
       <c r="J1199" t="n">
-        <v>437241095994</v>
+        <v>404176582142.453</v>
       </c>
       <c r="K1199" t="n">
         <v>8038502718</v>
       </c>
       <c r="L1199" t="n">
-        <v>437241095994</v>
+        <v>404176582142.453</v>
       </c>
     </row>
   </sheetData>
